--- a/src/test/resources/TestData/UI_TestData.xlsx
+++ b/src/test/resources/TestData/UI_TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\571154\git\ccs-scale-cat-test-Master-29042022\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA1C3DB-9F52-4ADF-A793-98ED08386395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65600D96-5B5B-4ECB-9E8B-193773FC4948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{6F42FF04-6404-4D56-9108-23BBEBD1C648}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
   <si>
     <t>TDID</t>
   </si>
@@ -154,6 +154,18 @@
   </si>
   <si>
     <t>1. See available suppliers!OPTIONAL!See available suppliers!2. Do pre-market engagement!OPTIONAL!Start pre-market engagement!3. Write and publish your requirements!TODO!Write and publish your requirements!4. Do evaluation!CANNOT START YET!5. Award the contract!CANNOT START YET!6. Publish your contract!OPTIONAL</t>
+  </si>
+  <si>
+    <t>DoPreMarketEngagementPageContentButtonStatus</t>
+  </si>
+  <si>
+    <t>Do pre-market engagement</t>
+  </si>
+  <si>
+    <t>1. Project and colleagues!Name your project!OPTIONAL!Change who is going to lead the procurement!OPTIONAL!Add colleagues to your project!OPTIONAL!2. Build your RfI!Build your RfI!TO DO!3. Review and publish your RfI!Upload documents!CANNOT START YET!See the suppliers who will receive your RfI!CANNOT START YET!Your RfI timeline!CANNOT START YET!Review and publish your RfI!CANNOT START YET</t>
+  </si>
+  <si>
+    <t>DoPreMarketEngagement_PageTitle</t>
   </si>
 </sst>
 </file>
@@ -661,10 +673,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA8D49A-BB20-4C74-9F3C-A1F46BC5FE7B}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -680,10 +692,12 @@
     <col min="10" max="10" width="17.90625" style="1" customWidth="1"/>
     <col min="11" max="11" width="18.7265625" style="1" customWidth="1"/>
     <col min="12" max="12" width="30.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.7265625" style="1"/>
+    <col min="13" max="13" width="30.453125" style="2" customWidth="1"/>
+    <col min="14" max="14" width="44.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -720,8 +734,14 @@
       <c r="L1" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="174" x14ac:dyDescent="0.35">
+      <c r="M1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="174" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -758,8 +778,14 @@
       <c r="L2" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="174" x14ac:dyDescent="0.35">
+      <c r="M2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="174" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -795,6 +821,12 @@
       </c>
       <c r="L3" s="2" t="s">
         <v>38</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData/UI_TestData.xlsx
+++ b/src/test/resources/TestData/UI_TestData.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\571154\git\ccs-scale-cat-test-Master-29042022\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65600D96-5B5B-4ECB-9E8B-193773FC4948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0CD9DE-5600-40F6-B7DE-73A2699F5439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{6F42FF04-6404-4D56-9108-23BBEBD1C648}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{6F42FF04-6404-4D56-9108-23BBEBD1C648}"/>
   </bookViews>
   <sheets>
     <sheet name="CreateProject" sheetId="1" r:id="rId1"/>
     <sheet name="UpdateProject" sheetId="2" r:id="rId2"/>
     <sheet name="OneFCFlowTestData" sheetId="3" r:id="rId3"/>
+    <sheet name="OneFCFlowTestDataSanity" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="62">
   <si>
     <t>TDID</t>
   </si>
@@ -166,6 +167,63 @@
   </si>
   <si>
     <t>DoPreMarketEngagement_PageTitle</t>
+  </si>
+  <si>
+    <t>data5</t>
+  </si>
+  <si>
+    <t>Dashboard</t>
+  </si>
+  <si>
+    <t>LoginPage</t>
+  </si>
+  <si>
+    <t>Sign in to the Public Procurement Gateway</t>
+  </si>
+  <si>
+    <t>Choose how to find a supplier</t>
+  </si>
+  <si>
+    <t>Write and publish your requirements</t>
+  </si>
+  <si>
+    <t>ChooseAgreement_Lot</t>
+  </si>
+  <si>
+    <t>S1_Title</t>
+  </si>
+  <si>
+    <t>S2_Radiobutton</t>
+  </si>
+  <si>
+    <t>S3_Title</t>
+  </si>
+  <si>
+    <t>1FC</t>
+  </si>
+  <si>
+    <t>Login_Title</t>
+  </si>
+  <si>
+    <t>Dashboard_Title</t>
+  </si>
+  <si>
+    <t>ChooseAgreement_Title</t>
+  </si>
+  <si>
+    <t>TDID1</t>
+  </si>
+  <si>
+    <t>UserID1</t>
+  </si>
+  <si>
+    <t>3. Write and publish your requirements</t>
+  </si>
+  <si>
+    <t>S1_Section</t>
+  </si>
+  <si>
+    <t>S2_Title</t>
   </si>
 </sst>
 </file>
@@ -675,8 +733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA8D49A-BB20-4C74-9F3C-A1F46BC5FE7B}">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -746,7 +804,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>21</v>
@@ -833,4 +891,177 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B7AC334-5A76-435C-B75A-0707E56AF15A}">
+  <dimension ref="A1:O4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="8.7265625" style="1"/>
+    <col min="3" max="3" width="36.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.36328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="28.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="34.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7265625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="30.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="30.453125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="44.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/test/resources/TestData/UI_TestData.xlsx
+++ b/src/test/resources/TestData/UI_TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\571154\git\ccs-scale-cat-test-Master-29042022\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0CD9DE-5600-40F6-B7DE-73A2699F5439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CBBE9D-FF48-4E2E-83A4-A38C0DAB46AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{6F42FF04-6404-4D56-9108-23BBEBD1C648}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="141">
   <si>
     <t>TDID</t>
   </si>
@@ -224,6 +224,243 @@
   </si>
   <si>
     <t>S2_Title</t>
+  </si>
+  <si>
+    <t>2. Upload  pricing schedules and other documents</t>
+  </si>
+  <si>
+    <t>S4_Title</t>
+  </si>
+  <si>
+    <t>S5_Title</t>
+  </si>
+  <si>
+    <t>Upload your pricing schedule</t>
+  </si>
+  <si>
+    <t>S5_DocPath</t>
+  </si>
+  <si>
+    <t>C:\Users\571154\git\ccs-scale-cat-test-Master-29042022\src\test\resources\TestData\CSV.csv</t>
+  </si>
+  <si>
+    <t>2. Upload pricing schedules and other documents</t>
+  </si>
+  <si>
+    <t>Upload your terms and conditions and other documents</t>
+  </si>
+  <si>
+    <t>S6_DocPath</t>
+  </si>
+  <si>
+    <t>C:\Users\571154\git\ccs-scale-cat-test-Master-29042022\src\test\resources\TestData\DOC.doc</t>
+  </si>
+  <si>
+    <t>S6_Title</t>
+  </si>
+  <si>
+    <t>Confirm if you need a contracted out service or supply of resource</t>
+  </si>
+  <si>
+    <t>S7_Title</t>
+  </si>
+  <si>
+    <t>S7_Radiobutton</t>
+  </si>
+  <si>
+    <t>I need a contracted out service</t>
+  </si>
+  <si>
+    <t>S8_Title</t>
+  </si>
+  <si>
+    <t>About adding context and requirements</t>
+  </si>
+  <si>
+    <t>S9_Title</t>
+  </si>
+  <si>
+    <t>Terms and acronyms (Optional)</t>
+  </si>
+  <si>
+    <t>S10_Title</t>
+  </si>
+  <si>
+    <t>Add background to your procurement</t>
+  </si>
+  <si>
+    <t>S11_Title</t>
+  </si>
+  <si>
+    <t>S11_keyBackground</t>
+  </si>
+  <si>
+    <t>S11_SocialEcoEnvBenefits</t>
+  </si>
+  <si>
+    <t>TXT1-Write your key background information here</t>
+  </si>
+  <si>
+    <t>TXT2-Social value, economic and environmental benefits</t>
+  </si>
+  <si>
+    <t>The business problem you need to solve</t>
+  </si>
+  <si>
+    <t>S12_Title</t>
+  </si>
+  <si>
+    <t>The people who will use your product or service (Optional)</t>
+  </si>
+  <si>
+    <t>S13_Title</t>
+  </si>
+  <si>
+    <t>S14_Title</t>
+  </si>
+  <si>
+    <t>Work done so far (optional)</t>
+  </si>
+  <si>
+    <t>S15_Title</t>
+  </si>
+  <si>
+    <t>Which phase the project is in</t>
+  </si>
+  <si>
+    <t>S15_Radiobutton</t>
+  </si>
+  <si>
+    <t>Discovery</t>
+  </si>
+  <si>
+    <t>Which phases of the project you need resource for</t>
+  </si>
+  <si>
+    <t>S16_Title</t>
+  </si>
+  <si>
+    <t>S16_CheckboxDiscovery</t>
+  </si>
+  <si>
+    <t>S16_CheckboxAlpha</t>
+  </si>
+  <si>
+    <t>S16_CheckboxBeta</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>S16_CheckboxLive</t>
+  </si>
+  <si>
+    <t>S16_CheckboxServiceDesign</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>How long the project will last</t>
+  </si>
+  <si>
+    <t>S17_ProjectToStartDate</t>
+  </si>
+  <si>
+    <t>S17_HowLongProjectWillRunOptnalDate</t>
+  </si>
+  <si>
+    <t>S17_ExtensionPeriodOptnalDate</t>
+  </si>
+  <si>
+    <t>2/4/10</t>
+  </si>
+  <si>
+    <t>S12_BusinessProblemTextBox</t>
+  </si>
+  <si>
+    <t>The business problem you need to solve-TXT-1</t>
+  </si>
+  <si>
+    <t>Add context and requirements</t>
+  </si>
+  <si>
+    <t>0/5/1</t>
+  </si>
+  <si>
+    <t>Choose if this is new, replacement or expanded product or service</t>
+  </si>
+  <si>
+    <t>S20_Radiobutton</t>
+  </si>
+  <si>
+    <t>New products or services</t>
+  </si>
+  <si>
+    <t>Not sure</t>
+  </si>
+  <si>
+    <t>Tell us if there is an existing supplier</t>
+  </si>
+  <si>
+    <t>S21_Radiobutton</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>S21_Radiobutton_Yes_data</t>
+  </si>
+  <si>
+    <t>NODATA</t>
+  </si>
+  <si>
+    <t>Incumbent supplier-TXT</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Management information and reporting requirements</t>
+  </si>
+  <si>
+    <t>S22_TextBox</t>
+  </si>
+  <si>
+    <t>TXT1-Management information and reporting requirements</t>
+  </si>
+  <si>
+    <t>AddYourServiceLevelsAndKPIs</t>
+  </si>
+  <si>
+    <t>S23_TextBoxKPIs</t>
+  </si>
+  <si>
+    <t>A|A|10~B|B|11~C|C|12</t>
+  </si>
+  <si>
+    <t>AddAnyPerformanceIncentives</t>
+  </si>
+  <si>
+    <t>S24_PerformanceIncentivesTextbox</t>
+  </si>
+  <si>
+    <t>S24_ExitStrategyTextbox</t>
+  </si>
+  <si>
+    <t>TXT1-AddAnyPerformanceIncentives</t>
+  </si>
+  <si>
+    <t>TXT2-AddAnyPerformanceIncentives</t>
+  </si>
+  <si>
+    <t>S25_TextBoxProjectRequirements</t>
+  </si>
+  <si>
+    <t>A|A|A~B|B|B~C|C|C</t>
+  </si>
+  <si>
+    <t>EnterYourProjectRequirements</t>
   </si>
 </sst>
 </file>
@@ -265,13 +502,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -895,10 +1135,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B7AC334-5A76-435C-B75A-0707E56AF15A}">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:AU4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
+      <selection activeCell="AV2" sqref="AV2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -913,14 +1153,35 @@
     <col min="9" max="9" width="33.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="39.90625" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="37.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.7265625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="43" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="30.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="30.453125" style="2" customWidth="1"/>
-    <col min="15" max="15" width="44.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.7265625" style="1"/>
+    <col min="14" max="15" width="30.453125" style="2" customWidth="1"/>
+    <col min="16" max="16" width="44.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="56.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="43.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="34.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="27.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="32.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="34.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="34.7265625" style="1" customWidth="1"/>
+    <col min="27" max="27" width="50.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="24.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="36" width="43.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="25" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="34.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="28.08984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="56.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="42" width="31.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="51.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="26" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="14.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="31.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="27.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="48" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:47" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>57</v>
       </c>
@@ -954,8 +1215,116 @@
       <c r="K1" s="1" t="s">
         <v>48</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>140</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -989,8 +1358,116 @@
       <c r="K2" s="1" t="s">
         <v>52</v>
       </c>
+      <c r="L2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AI2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AL2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AM2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AQ2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT2" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AU2" s="1" t="s">
+        <v>138</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:47" ht="58" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1024,8 +1501,116 @@
       <c r="K3" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="L3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AQ3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AR3" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AS3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AT3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AU3" s="1" t="s">
+        <v>139</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:47" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1058,6 +1643,114 @@
       </c>
       <c r="K4" s="2" t="s">
         <v>48</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM4" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ4" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AT4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/TestData/UI_TestData.xlsx
+++ b/src/test/resources/TestData/UI_TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\571154\git\ccs-scale-cat-test-Master-29042022\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97CBBE9D-FF48-4E2E-83A4-A38C0DAB46AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBA4C783-F219-4524-A8A6-08284FCF35B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{6F42FF04-6404-4D56-9108-23BBEBD1C648}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="196">
   <si>
     <t>TDID</t>
   </si>
@@ -461,13 +461,178 @@
   </si>
   <si>
     <t>EnterYourProjectRequirements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choose the roles you need </t>
+  </si>
+  <si>
+    <t>Security and vetting requirements</t>
+  </si>
+  <si>
+    <t>Skills and Capabilities</t>
+  </si>
+  <si>
+    <t>Where the work Will be done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">weighting for quality and price </t>
+  </si>
+  <si>
+    <t>weighting for quality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write your technical questions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write your cultural fit questions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write your social value questions </t>
+  </si>
+  <si>
+    <t>How you will score suppliers</t>
+  </si>
+  <si>
+    <t>S34_Cluster_Data</t>
+  </si>
+  <si>
+    <t>S34_Cluster_IT Ops</t>
+  </si>
+  <si>
+    <t>S34_Cluster_Product Delivery</t>
+  </si>
+  <si>
+    <t>S34_Cluster_QAT</t>
+  </si>
+  <si>
+    <t>S34_Cluster_Technical</t>
+  </si>
+  <si>
+    <t>S34_Cluster_User Centred Design</t>
+  </si>
+  <si>
+    <t>S34_Cluster_Security and Privacy (Non-DDAT)</t>
+  </si>
+  <si>
+    <t>S35_Security Level</t>
+  </si>
+  <si>
+    <t>S36_Cluster_Performance analysis and data</t>
+  </si>
+  <si>
+    <t>S36_Cluster_Security</t>
+  </si>
+  <si>
+    <t>S36_Cluster_Service delivery</t>
+  </si>
+  <si>
+    <t>S36_Cluster_Software development</t>
+  </si>
+  <si>
+    <t>S36_Cluster_Support and operations</t>
+  </si>
+  <si>
+    <t>S36_Cluster_Testing and auditing</t>
+  </si>
+  <si>
+    <t>S36_Cluster_User experience and design</t>
+  </si>
+  <si>
+    <t>S36_Cluster_User research</t>
+  </si>
+  <si>
+    <t>S37_Locations</t>
+  </si>
+  <si>
+    <t>S41_quality and price weighting</t>
+  </si>
+  <si>
+    <t>S42_quality weighting</t>
+  </si>
+  <si>
+    <t>S43_Technical Questions</t>
+  </si>
+  <si>
+    <t>S44_Cultural fit Questions</t>
+  </si>
+  <si>
+    <t>S45_Social Value Questions</t>
+  </si>
+  <si>
+    <t>S48_Scoring Criteria</t>
+  </si>
+  <si>
+    <t>Associate Performance Analyst, SFIA level 3|1~Data Analyst, SFIA level 3|1</t>
+  </si>
+  <si>
+    <t>Senior Business Relationship Manager, SFIA level 6|1~Business Relationship Manager, SFIA level 4|1</t>
+  </si>
+  <si>
+    <t>Senior Product Manager, SFIA level 4|1~Product Manager, SFIA level 3|1</t>
+  </si>
+  <si>
+    <t>Tester, SFIA level 3|1~Test Manager, SFIA level 6|1</t>
+  </si>
+  <si>
+    <t>Chief Data Architect, SFIA level 6|1~Senior Data Architect, SFIA level 5|1</t>
+  </si>
+  <si>
+    <t>Associate User Researcher, SFIA level 2|1~Apprentice User Researcher, SFIA level 1|1</t>
+  </si>
+  <si>
+    <t>Head of Information Security, SFIA level 7|1~Lead Information Security Adviser, SFIA level 6|1</t>
+  </si>
+  <si>
+    <t>CTC|2</t>
+  </si>
+  <si>
+    <t>A/B and multivariate testing~Data analysis</t>
+  </si>
+  <si>
+    <t>IT health check~Risk management</t>
+  </si>
+  <si>
+    <t>Product management~Programme management</t>
+  </si>
+  <si>
+    <t>Game development~Machine learning</t>
+  </si>
+  <si>
+    <t>Network administration~Service desk</t>
+  </si>
+  <si>
+    <t>Process auditing~Software auditing</t>
+  </si>
+  <si>
+    <t>Prototyping~Service design</t>
+  </si>
+  <si>
+    <t>Usability testing~User journey mapping</t>
+  </si>
+  <si>
+    <t>Greater London~Isle of Man~North East England~North West England</t>
+  </si>
+  <si>
+    <t>50~50</t>
+  </si>
+  <si>
+    <t>70~15~15</t>
+  </si>
+  <si>
+    <t>A|A|A|3~B|B|B|4~C|C|C|5~A|A|A|3~B|B|B|4~C|C|C|5~A|A|A|3~B|B|B|4~C|C|C|5~C|C|C|5</t>
+  </si>
+  <si>
+    <t>B|B|B|30</t>
+  </si>
+  <si>
+    <t>C|C|C|30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -481,16 +646,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -498,11 +676,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -513,6 +706,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1135,10 +1331,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B7AC334-5A76-435C-B75A-0707E56AF15A}">
-  <dimension ref="A1:AU4"/>
+  <dimension ref="A1:BR4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
-      <selection activeCell="AV2" sqref="AV2"/>
+    <sheetView tabSelected="1" topLeftCell="AR2" workbookViewId="0">
+      <selection activeCell="AV3" sqref="AV3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1178,10 +1374,11 @@
     <col min="45" max="45" width="14.26953125" style="1" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="31.54296875" style="1" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="27.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="48" max="16384" width="8.7265625" style="1"/>
+    <col min="48" max="49" width="23.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="50" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:70" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>57</v>
       </c>
@@ -1323,8 +1520,77 @@
       <c r="AU1" s="1" t="s">
         <v>140</v>
       </c>
+      <c r="AV1" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="AW1" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AX1" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AY1" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="AZ1" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="BA1" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="BB1" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BO1" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="BP1" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="BQ1" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="BR1" s="5" t="s">
+        <v>150</v>
+      </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1466,8 +1732,77 @@
       <c r="AU2" s="1" t="s">
         <v>138</v>
       </c>
+      <c r="AV2" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="AW2" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="AX2" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="AY2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="AZ2" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BA2" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>157</v>
+      </c>
+      <c r="BC2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="BD2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="BE2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="BF2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="BG2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="BH2" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="BI2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="BJ2" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="BK2" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="BL2" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="BM2" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="BN2" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="BR2" s="4" t="s">
+        <v>173</v>
+      </c>
     </row>
-    <row r="3" spans="1:47" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:70" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1609,8 +1944,77 @@
       <c r="AU3" s="1" t="s">
         <v>139</v>
       </c>
+      <c r="AV3" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AW3" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="AX3" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AY3" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AZ3" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="BA3" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="BB3" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="BC3" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="BD3" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="BE3" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="BF3" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG3" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="BH3" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="BI3" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="BJ3" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="BK3" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="BL3" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="BM3" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="BN3" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="BO3" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="BP3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="BQ3" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="BR3" s="1">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:47" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:70" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -1751,6 +2155,75 @@
       </c>
       <c r="AU4" s="1" t="s">
         <v>139</v>
+      </c>
+      <c r="AV4" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="AW4" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="AX4" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="AY4" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="AZ4" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="BA4" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="BB4" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="BC4" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="BD4" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="BE4" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="BF4" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="BG4" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="BH4" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="BI4" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="BJ4" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="BK4" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="BL4" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="BM4" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="BN4" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="BO4" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="BP4" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="BQ4" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="BR4" s="1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
